--- a/Mod Tracker.xlsx
+++ b/Mod Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="0" windowWidth="22700" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13700" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="143">
   <si>
     <t>Mod</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>Gamedata</t>
-  </si>
-  <si>
     <t>Updated</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>Real Solar System</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>Real Engines (Engine Pack)</t>
   </si>
   <si>
-    <t>Requires Hotrockets</t>
-  </si>
-  <si>
     <t>ModuleRCSFX</t>
   </si>
   <si>
@@ -102,12 +93,6 @@
     <t>Environmental Visual Enhancements</t>
   </si>
   <si>
-    <t>Realistic Progression LITE</t>
-  </si>
-  <si>
-    <t>Requires Tree Loader</t>
-  </si>
-  <si>
     <t>Misson Controller Extended</t>
   </si>
   <si>
@@ -126,9 +111,6 @@
     <t>KOSMOS Salyut</t>
   </si>
   <si>
-    <t>ALCOR</t>
-  </si>
-  <si>
     <t>B9</t>
   </si>
   <si>
@@ -153,30 +135,15 @@
     <t>RLA Stockalike</t>
   </si>
   <si>
-    <t>KerbX</t>
-  </si>
-  <si>
-    <t>LazTek</t>
-  </si>
-  <si>
     <t>Requires Real Fuels</t>
   </si>
   <si>
     <t>0.13.3</t>
   </si>
   <si>
-    <t>0.9.8</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>0.6.1</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Editor Extensions</t>
   </si>
   <si>
@@ -184,6 +151,303 @@
   </si>
   <si>
     <t>1.1.0.1</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/55145-0-23-5-Real-Solar-System-v6-2-6-1-14</t>
+  </si>
+  <si>
+    <t>https://github.com/NathanKell/RealSolarSystem/releases/download/v6.2/RealSolarSystem_v6.2.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/NathanKell/RealismOverhaul/releases/download/v5.1/RealismOverhaul_v5.1.zip</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/59207</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/70008</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/meta_dl/eyJzdWJfcGF0aCI6ICIvQUpFXzEuMy56aXAiLCAidGVzdF9saW5rIjogZmFsc2UsICJzZXJ2ZXIiOiAiZGwuZHJvcGJveHVzZXJjb250ZW50LmNvbSIsICJpdGVtX2lkIjogbnVsbCwgImlzX2RpciI6IGZhbHNlLCAidGtleSI6ICJ2MWZ1bnI3Mnk1MDRyejYifQ/AANGPs7_po7dHgTzGRSXPCpb5XikoWLtslhAuByFTh9f9g?dl=1</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/54954-Deadly-Reentry-Continued-v1</t>
+  </si>
+  <si>
+    <t>https://github.com/NathanKell/DeadlyReentry/releases/download/v4.7/DeadlyReentryCont_v4.7.zip</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/20451</t>
+  </si>
+  <si>
+    <t>https://github.com/ferram4/Ferram-Aerospace-Research/releases/download/v0.13.3/FerramAerospaceResearch_v0_13_3.zip</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/55657</t>
+  </si>
+  <si>
+    <t>http://download753.mediafire.com/83852ol75ycg/yvi7o1t6a36m5hk/KerbalJointReinforcement_v2.3.zip</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>YES -&gt;</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Dropbox</t>
+  </si>
+  <si>
+    <t>MEDIAFIRE</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/77398</t>
+  </si>
+  <si>
+    <t>https://github.com/Ialdabaoth/ModuleRCSFX/blob/master/ModuleRCSFX.zip?raw=true</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/70676</t>
+  </si>
+  <si>
+    <t>https://github.com/Swamp-Ig/ProceduralParts/releases/download/v0.9.14/ProceduralParts-0.9.14.zip</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/59207-0-22-Realism-Overhaul-ROv2-Modlist-for-RSS?p=825469&amp;viewfull=1#post825469</t>
+  </si>
+  <si>
+    <t>0.9.14</t>
+  </si>
+  <si>
+    <t>http://download953.mediafire.com/v1o4sd4xgfeg/6gmh72x2uql7q2c/RealEngines.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/NathanKell/ModularFuelSystem/releases/download/rf-v6.1/RealFuels_v6.1.zip</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/64118</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Replaceport</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/57988</t>
+  </si>
+  <si>
+    <t>http://realchute.jeblikesboosters.com/download/stupid_chris/RealChute/1</t>
+  </si>
+  <si>
+    <t>Requires Hotrockets - Requires Exsurgent Engineering</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/57833-Reaching-for-the-Stars-PH-III-Faster-than-the-Sun-%28-Ch1-retcon%29-3-13-14?p=773847&amp;viewfull=1#post773847</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/meta_dl/eyJzdWJfcGF0aCI6ICIiLCAidGVzdF9saW5rIjogZmFsc2UsICJzZXJ2ZXIiOiAiZGwuZHJvcGJveHVzZXJjb250ZW50LmNvbSIsICJpdGVtX2lkIjogbnVsbCwgImlzX2RpciI6IGZhbHNlLCAidGtleSI6ICIxZmcwZDR6NDI4bm4xdmkifQ/AAMv90VtqgPCgKgcvvfhs7zjMoPIyInzgSoC0o5g2X_iqA?dl=1</t>
+  </si>
+  <si>
+    <t>Module Manager</t>
+  </si>
+  <si>
+    <t>Toolbar</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/40667</t>
+  </si>
+  <si>
+    <t>https://github.com/taraniselsu/TacLifeSupport/releases/download/Release_v0.8/TacLifeSupport_0.8.0.4.zip</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/55219</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>https://ksp.sarbian.com/jenkins/job/ModuleManager/lastBuild/artifact/jenkins-ModuleManager-36/ModuleManager.2.1.5.dll</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/60863</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>http://blizzy.de/toolbar/Toolbar-1.7.1.zip</t>
+  </si>
+  <si>
+    <t>Blizzy</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/60936</t>
+  </si>
+  <si>
+    <t>0.5.7</t>
+  </si>
+  <si>
+    <t>https://ksp.sarbian.com/jenkins/job/CrewManifest/lastSuccessfulBuild/artifact/jenkins-CrewManifest-5/CrewManifest-0.5.7.0.zip</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/38768</t>
+  </si>
+  <si>
+    <t>https://github.com/MachXXV/EditorExtensions/blob/master/Releases/EditorExtensions_v1.1.zip?raw=true</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/55905</t>
+  </si>
+  <si>
+    <t>https://github.com/rbray89/EnvironmentalVisualEnhancements/releases/download/OVERHAUL-8/Overhaul-8.zip</t>
+  </si>
+  <si>
+    <t>Overhaul-8</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/43645</t>
+  </si>
+  <si>
+    <t>0.6.9</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/meta_dl/eyJzdWJfcGF0aCI6ICIiLCAidGVzdF9saW5rIjogZmFsc2UsICJzZXJ2ZXIiOiAiZGwuZHJvcGJveHVzZXJjb250ZW50LmNvbSIsICJpdGVtX2lkIjogbnVsbCwgImlzX2RpciI6IGZhbHNlLCAidGtleSI6ICIyb2tqMXIzcGRpZGl2a2EifQ/AANLsRIrxvrp9i0Hu4nsOeQ2HpmBLD6n1wjUE0e2--HsJQ?dl=1</t>
+  </si>
+  <si>
+    <t>https://github.com/e-dog/ProceduralFairings/releases/download/v3.03/ProcFairings_3.03.zip</t>
+  </si>
+  <si>
+    <t>3.0.3</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/39512</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/29862</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/70818657/ProceduralDynamics0.7.zip</t>
+  </si>
+  <si>
+    <t>RemoteTech 2 Communtiy HotFix</t>
+  </si>
+  <si>
+    <t>https://github.com/RemoteTechnologiesGroup/RemoteTech/releases/download/v1.3.3/RemoteTech-v1.3.3.zip</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/56399</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>1.3.3.2</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/56399-DEVELOPMENT-SLOWED-RemoteTech-2?p=901076&amp;viewfull=1#post901076</t>
+  </si>
+  <si>
+    <t>http://download1987.mediafire.com/mdm8dt5egd1g/dncc8qu44t30a90/RemoteTech2_2014.01.08.22.30.zip</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/35383</t>
+  </si>
+  <si>
+    <t>http://download642.mediafire.com/lbdbla51g0ag/c8efj64k6izx6xc/AIES_Aerospace151.zip</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/25241</t>
+  </si>
+  <si>
+    <t>http://download899.mediafire.com/61ub4m6py3dg/o6cbe03iitggj1p/B9+Aerospace+Pack+R4.0c.zip</t>
+  </si>
+  <si>
+    <t>http://kerbal.curseforge.com/ksp-mods/220632-fasa/files/2203156/download</t>
+  </si>
+  <si>
+    <t>CurseForge</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/24867</t>
+  </si>
+  <si>
+    <t>0.04.4</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/meta_dl/eyJzdWJfcGF0aCI6ICIiLCAidGVzdF9saW5rIjogZmFsc2UsICJzZXJ2ZXIiOiAiZGwuZHJvcGJveHVzZXJjb250ZW50LmNvbSIsICJpdGVtX2lkIjogbnVsbCwgImlzX2RpciI6IGZhbHNlLCAidGtleSI6ICJtZ3Q4b2Z2OW9sYTY5OWoifQ/AAMAwqQdNrBRaVcdWlEm4ZHEgNylg4KmEIhPNobUeqJOqQ?dl=1</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/35043</t>
+  </si>
+  <si>
+    <t>http://download1770.mediafire.com/8np5gxoq5y9g/ufy6utd77j1vlje/Kosmos+LK+1.0.zip</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/6680</t>
+  </si>
+  <si>
+    <t>2.5.6</t>
+  </si>
+  <si>
+    <t>http://download1874.mediafire.com/5xdv8192crqg/hxt2kfpctmcmt56/KW+Release+Package+v2.5.6B.zip</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/51037</t>
+  </si>
+  <si>
+    <t>0.1.11</t>
+  </si>
+  <si>
+    <t>Nabaal</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/52042</t>
+  </si>
+  <si>
+    <t>https://nabaal.net/files/ksp/nertea/NearFutureSolar0_1_1a.zip</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/3870</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/46506740/NovaPunch2_04.zip</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/meta_dl/eyJzdWJfcGF0aCI6ICIiLCAidGVzdF9saW5rIjogZmFsc2UsICJzZXJ2ZXIiOiAiZGwuZHJvcGJveHVzZXJjb250ZW50LmNvbSIsICJpdGVtX2lkIjogbnVsbCwgImlzX2RpciI6IGZhbHNlLCAidGtleSI6ICI3cmZ1dTZvdHQ4ajVibDcifQ/AAP-snW4N4MxrOgyFIN7956073cmSMVHFIxV0FOcWmwIBw?dl=1</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/64442</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/meta_dl/eyJzdWJfcGF0aCI6ICIiLCAidGVzdF9saW5rIjogZmFsc2UsICJzZXJ2ZXIiOiAiZGwuZHJvcGJveHVzZXJjb250ZW50LmNvbSIsICJpdGVtX2lkIjogbnVsbCwgImlzX2RpciI6IGZhbHNlLCAidGtleSI6ICJhbmp1YTJ3Znh5bWJ0bzQifQ/AANNP1P_UxB-pqvoDG_S10hFtxO86cc2TXTKMVtQW8S25g?dl=1</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/52362</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/3061183/Space-shuttle-engines-2014-06-08-v1.4.zip</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/55985</t>
+  </si>
+  <si>
+    <t>http://kerbal-space-parts.com/mods/438/SovietEngines-1.1.zip</t>
   </si>
 </sst>
 </file>
@@ -215,12 +479,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -232,23 +508,292 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="137">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,19 +1123,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="7" max="7" width="99.33203125" customWidth="1"/>
+    <col min="9" max="9" width="99.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,352 +1152,1024 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
       <c r="B3">
-        <v>6.1</v>
-      </c>
-      <c r="C3" t="s">
+        <v>6.2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>41792</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>41758</v>
-      </c>
-      <c r="E3" s="1">
-        <v>41766</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>10</v>
       </c>
       <c r="B4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="C4" s="1">
+        <v>41766</v>
       </c>
       <c r="D4" s="1">
-        <v>41766</v>
-      </c>
-      <c r="E4" s="1">
-        <v>41766</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>41799</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>41792</v>
       </c>
       <c r="D6" s="1">
-        <v>41762</v>
-      </c>
-      <c r="E6" s="1">
-        <v>41766</v>
+        <v>41799</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>4.7</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
+      <c r="C7" s="1">
+        <v>41764</v>
       </c>
       <c r="D7" s="1">
-        <v>41764</v>
-      </c>
-      <c r="E7" s="1">
-        <v>41766</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>41799</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="C8" s="1">
+        <v>41760</v>
       </c>
       <c r="D8" s="1">
-        <v>41760</v>
-      </c>
-      <c r="E8" s="1">
-        <v>41766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>41799</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C9" t="s">
-        <v>51</v>
+      <c r="C9" s="1">
+        <v>41790</v>
       </c>
       <c r="D9" s="1">
-        <v>41743</v>
-      </c>
-      <c r="E9" s="1">
-        <v>41766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>41799</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>0.3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2">
+        <v>41781</v>
       </c>
       <c r="D10" s="1">
-        <v>41754</v>
-      </c>
-      <c r="E10" s="1">
-        <v>41766</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>41799</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
+      <c r="B11" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>41765</v>
       </c>
       <c r="D11" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1">
         <v>41763</v>
       </c>
-      <c r="E11" s="1">
-        <v>41766</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
       <c r="D12" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1">
         <v>41693</v>
       </c>
-      <c r="E12" s="1">
-        <v>41766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="D13" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>6.1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>41798</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
-        <v>5.3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
-        <v>41763</v>
-      </c>
-      <c r="E13" s="1">
-        <v>41766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>41756</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D16" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>0.8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>41996</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2">
+        <v>41731</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="1">
+        <v>41761</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C21" s="1">
+        <v>41731</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="1">
+        <v>41781</v>
+      </c>
+      <c r="D22" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1">
+        <v>41797</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="1">
+        <v>41796</v>
+      </c>
+      <c r="D24" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1">
-        <v>41756</v>
-      </c>
-      <c r="E14" s="1">
-        <v>41766</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45292</v>
-      </c>
-      <c r="E15" s="1">
-        <v>41766</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="B25">
+        <v>0.7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>41660</v>
+      </c>
+      <c r="D25" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="1">
+        <v>41650</v>
+      </c>
+      <c r="D27" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="1">
+        <v>41677</v>
+      </c>
+      <c r="D29" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>41933</v>
+      </c>
+      <c r="D30" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>4.7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>41796</v>
+      </c>
+      <c r="D32" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1">
+        <v>41795</v>
+      </c>
+      <c r="D33" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C34" s="7">
+        <v>41249</v>
+      </c>
+      <c r="D34" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="1">
+        <v>42004</v>
+      </c>
+      <c r="D35" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" t="s">
+        <v>128</v>
+      </c>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="1">
+        <v>41790</v>
+      </c>
+      <c r="D36" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" t="s">
+        <v>133</v>
+      </c>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
         <v>27</v>
       </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B37">
+        <v>2.04</v>
+      </c>
+      <c r="C37" s="1">
+        <v>41777</v>
+      </c>
+      <c r="D37" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" t="s">
+        <v>135</v>
+      </c>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0.4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>41752</v>
+      </c>
+      <c r="D38" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" t="s">
+        <v>136</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>1.9</v>
+      </c>
+      <c r="C40" s="1">
+        <v>41734</v>
+      </c>
+      <c r="D40" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>1.4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>41798</v>
+      </c>
+      <c r="D41" s="1">
+        <v>41799</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A39:A40">
-    <sortCondition ref="A39"/>
+  <sortState ref="A7:I18">
+    <sortCondition ref="A6"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Mod Tracker.xlsx
+++ b/Mod Tracker.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13700" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="-40" yWindow="20" windowWidth="14540" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Charlie Wilson - Personal View" guid="{8418E1C0-32C3-E149-88BF-82E8DC3121C6}" mergeInterval="0" personalView="1" xWindow="-2" yWindow="55" windowWidth="727" windowHeight="820" tabRatio="500" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="133">
   <si>
     <t>Mod</t>
   </si>
@@ -36,9 +39,6 @@
     <t>Issues</t>
   </si>
   <si>
-    <t>installation details</t>
-  </si>
-  <si>
     <t>Real Solar System</t>
   </si>
   <si>
@@ -105,9 +105,6 @@
     <t>NovaPunch</t>
   </si>
   <si>
-    <t>Bobcat Soviet Engines</t>
-  </si>
-  <si>
     <t>KOSMOS Salyut</t>
   </si>
   <si>
@@ -132,12 +129,6 @@
     <t>Space Shuttle Engines</t>
   </si>
   <si>
-    <t>RLA Stockalike</t>
-  </si>
-  <si>
-    <t>Requires Real Fuels</t>
-  </si>
-  <si>
     <t>0.13.3</t>
   </si>
   <si>
@@ -174,9 +165,6 @@
     <t>http://forum.kerbalspaceprogram.com/threads/70008</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/meta_dl/eyJzdWJfcGF0aCI6ICIvQUpFXzEuMy56aXAiLCAidGVzdF9saW5rIjogZmFsc2UsICJzZXJ2ZXIiOiAiZGwuZHJvcGJveHVzZXJjb250ZW50LmNvbSIsICJpdGVtX2lkIjogbnVsbCwgImlzX2RpciI6IGZhbHNlLCAidGtleSI6ICJ2MWZ1bnI3Mnk1MDRyejYifQ/AANGPs7_po7dHgTzGRSXPCpb5XikoWLtslhAuByFTh9f9g?dl=1</t>
-  </si>
-  <si>
     <t>http://forum.kerbalspaceprogram.com/threads/54954-Deadly-Reentry-Continued-v1</t>
   </si>
   <si>
@@ -192,9 +180,6 @@
     <t>http://forum.kerbalspaceprogram.com/threads/55657</t>
   </si>
   <si>
-    <t>http://download753.mediafire.com/83852ol75ycg/yvi7o1t6a36m5hk/KerbalJointReinforcement_v2.3.zip</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -228,12 +213,6 @@
     <t>0.9.14</t>
   </si>
   <si>
-    <t>http://download953.mediafire.com/v1o4sd4xgfeg/6gmh72x2uql7q2c/RealEngines.zip</t>
-  </si>
-  <si>
-    <t>https://github.com/NathanKell/ModularFuelSystem/releases/download/rf-v6.1/RealFuels_v6.1.zip</t>
-  </si>
-  <si>
     <t>http://forum.kerbalspaceprogram.com/threads/64118</t>
   </si>
   <si>
@@ -249,9 +228,6 @@
     <t>http://realchute.jeblikesboosters.com/download/stupid_chris/RealChute/1</t>
   </si>
   <si>
-    <t>Requires Hotrockets - Requires Exsurgent Engineering</t>
-  </si>
-  <si>
     <t>http://forum.kerbalspaceprogram.com/threads/57833-Reaching-for-the-Stars-PH-III-Faster-than-the-Sun-%28-Ch1-retcon%29-3-13-14?p=773847&amp;viewfull=1#post773847</t>
   </si>
   <si>
@@ -285,12 +261,6 @@
     <t>http://forum.kerbalspaceprogram.com/threads/60863</t>
   </si>
   <si>
-    <t>1.7.1</t>
-  </si>
-  <si>
-    <t>http://blizzy.de/toolbar/Toolbar-1.7.1.zip</t>
-  </si>
-  <si>
     <t>Blizzy</t>
   </si>
   <si>
@@ -321,18 +291,6 @@
     <t>http://forum.kerbalspaceprogram.com/threads/43645</t>
   </si>
   <si>
-    <t>0.6.9</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/meta_dl/eyJzdWJfcGF0aCI6ICIiLCAidGVzdF9saW5rIjogZmFsc2UsICJzZXJ2ZXIiOiAiZGwuZHJvcGJveHVzZXJjb250ZW50LmNvbSIsICJpdGVtX2lkIjogbnVsbCwgImlzX2RpciI6IGZhbHNlLCAidGtleSI6ICIyb2tqMXIzcGRpZGl2a2EifQ/AANLsRIrxvrp9i0Hu4nsOeQ2HpmBLD6n1wjUE0e2--HsJQ?dl=1</t>
-  </si>
-  <si>
-    <t>https://github.com/e-dog/ProceduralFairings/releases/download/v3.03/ProcFairings_3.03.zip</t>
-  </si>
-  <si>
-    <t>3.0.3</t>
-  </si>
-  <si>
     <t>http://forum.kerbalspaceprogram.com/threads/39512</t>
   </si>
   <si>
@@ -342,48 +300,15 @@
     <t>https://dl.dropboxusercontent.com/u/70818657/ProceduralDynamics0.7.zip</t>
   </si>
   <si>
-    <t>RemoteTech 2 Communtiy HotFix</t>
-  </si>
-  <si>
-    <t>https://github.com/RemoteTechnologiesGroup/RemoteTech/releases/download/v1.3.3/RemoteTech-v1.3.3.zip</t>
-  </si>
-  <si>
-    <t>http://forum.kerbalspaceprogram.com/threads/56399</t>
-  </si>
-  <si>
-    <t>1.3.3</t>
-  </si>
-  <si>
-    <t>1.3.3.2</t>
-  </si>
-  <si>
-    <t>http://forum.kerbalspaceprogram.com/threads/56399-DEVELOPMENT-SLOWED-RemoteTech-2?p=901076&amp;viewfull=1#post901076</t>
-  </si>
-  <si>
-    <t>http://download1987.mediafire.com/mdm8dt5egd1g/dncc8qu44t30a90/RemoteTech2_2014.01.08.22.30.zip</t>
-  </si>
-  <si>
     <t>1.5.1</t>
   </si>
   <si>
     <t>http://forum.kerbalspaceprogram.com/threads/35383</t>
   </si>
   <si>
-    <t>http://download642.mediafire.com/lbdbla51g0ag/c8efj64k6izx6xc/AIES_Aerospace151.zip</t>
-  </si>
-  <si>
     <t>http://forum.kerbalspaceprogram.com/threads/25241</t>
   </si>
   <si>
-    <t>http://download899.mediafire.com/61ub4m6py3dg/o6cbe03iitggj1p/B9+Aerospace+Pack+R4.0c.zip</t>
-  </si>
-  <si>
-    <t>http://kerbal.curseforge.com/ksp-mods/220632-fasa/files/2203156/download</t>
-  </si>
-  <si>
-    <t>CurseForge</t>
-  </si>
-  <si>
     <t>http://forum.kerbalspaceprogram.com/threads/24867</t>
   </si>
   <si>
@@ -396,18 +321,12 @@
     <t>http://forum.kerbalspaceprogram.com/threads/35043</t>
   </si>
   <si>
-    <t>http://download1770.mediafire.com/8np5gxoq5y9g/ufy6utd77j1vlje/Kosmos+LK+1.0.zip</t>
-  </si>
-  <si>
     <t>http://forum.kerbalspaceprogram.com/threads/6680</t>
   </si>
   <si>
     <t>2.5.6</t>
   </si>
   <si>
-    <t>http://download1874.mediafire.com/5xdv8192crqg/hxt2kfpctmcmt56/KW+Release+Package+v2.5.6B.zip</t>
-  </si>
-  <si>
     <t>http://forum.kerbalspaceprogram.com/threads/51037</t>
   </si>
   <si>
@@ -426,28 +345,82 @@
     <t>http://forum.kerbalspaceprogram.com/threads/3870</t>
   </si>
   <si>
-    <t>https://dl.dropboxusercontent.com/u/46506740/NovaPunch2_04.zip</t>
-  </si>
-  <si>
     <t>https://www.dropbox.com/meta_dl/eyJzdWJfcGF0aCI6ICIiLCAidGVzdF9saW5rIjogZmFsc2UsICJzZXJ2ZXIiOiAiZGwuZHJvcGJveHVzZXJjb250ZW50LmNvbSIsICJpdGVtX2lkIjogbnVsbCwgImlzX2RpciI6IGZhbHNlLCAidGtleSI6ICI3cmZ1dTZvdHQ4ajVibDcifQ/AAP-snW4N4MxrOgyFIN7956073cmSMVHFIxV0FOcWmwIBw?dl=1</t>
   </si>
   <si>
     <t>http://forum.kerbalspaceprogram.com/threads/64442</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/meta_dl/eyJzdWJfcGF0aCI6ICIiLCAidGVzdF9saW5rIjogZmFsc2UsICJzZXJ2ZXIiOiAiZGwuZHJvcGJveHVzZXJjb250ZW50LmNvbSIsICJpdGVtX2lkIjogbnVsbCwgImlzX2RpciI6IGZhbHNlLCAidGtleSI6ICJhbmp1YTJ3Znh5bWJ0bzQifQ/AANNP1P_UxB-pqvoDG_S10hFtxO86cc2TXTKMVtQW8S25g?dl=1</t>
-  </si>
-  <si>
     <t>http://forum.kerbalspaceprogram.com/threads/52362</t>
   </si>
   <si>
-    <t>https://dl.dropboxusercontent.com/u/3061183/Space-shuttle-engines-2014-06-08-v1.4.zip</t>
-  </si>
-  <si>
     <t>http://forum.kerbalspaceprogram.com/threads/55985</t>
   </si>
   <si>
-    <t>http://kerbal-space-parts.com/mods/438/SovietEngines-1.1.zip</t>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/sh/v1funr72y504rz6/AADByOlzm6kBfsp44Anqn0Z4a/AJE_1.4.zip?dl=1</t>
+  </si>
+  <si>
+    <t>http://www.mediafire.com/download/yvi7o1t6a36m5hk/KerbalJointReinforcement_v2.3.zip</t>
+  </si>
+  <si>
+    <t>http://www.mediafire.com/download/6gmh72x2uql7q2c/RealEngines.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/NathanKell/ModularFuelSystem/releases/download/rf-v6.2/RealFuels_v6.2.zip</t>
+  </si>
+  <si>
+    <t>http://blizzy.de/toolbar/Toolbar-1.7.3.zip</t>
+  </si>
+  <si>
+    <t>1.7.3</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/kk8whgbwwy7l8kp/MissionControllerMCE71.zip?dl=1</t>
+  </si>
+  <si>
+    <t>https://github.com/e-dog/ProceduralFairings/releases/download/v3.05/ProcFairings_3.05.zip</t>
+  </si>
+  <si>
+    <t>http://forum.kerbalspaceprogram.com/threads/83305</t>
+  </si>
+  <si>
+    <t>https://github.com/RemoteTechnologiesGroup/RemoteTech/releases/download/v1.4.0/RemoteTech-v1.4.0.zip</t>
+  </si>
+  <si>
+    <t>http://www.mediafire.com/download/c8efj64k6izx6xc/AIES_Aerospace151.zip</t>
+  </si>
+  <si>
+    <t>http://www.mediafire.com/download/o6cbe03iitggj1p/B9+Aerospace+Pack+R4.0c.zip</t>
+  </si>
+  <si>
+    <t>http://www.mediafire.com/download/6ony6x1oseot9pp/FASA4.91.zip</t>
+  </si>
+  <si>
+    <t>http://www.mediafire.com/download/ai9epvsl49ron6c/Kosmos+4.1.zip</t>
+  </si>
+  <si>
+    <t>http://www.mediafire.com/download/hxt2kfpctmcmt56/KW+Release+Package+v2.5.6B.zip</t>
+  </si>
+  <si>
+    <t>http://beta.kerbalstuff.com/mod/26/NovaPunch/download/2.05</t>
+  </si>
+  <si>
+    <t>KerbalStuf</t>
+  </si>
+  <si>
+    <t>https://github.com/sumghai/SDHI_ServiceModuleSystem/releases/download/v1.9/ksp_sdhi_sms_v1_9.zip</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/3061183/Space-shuttle-engines-2014-06-13-v1.4.2.zip</t>
   </si>
 </sst>
 </file>
@@ -479,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,6 +471,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -508,7 +487,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -646,8 +625,166 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -656,8 +793,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="295">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -726,6 +864,85 @@
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -794,11 +1011,1025 @@
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{98FF57BC-DB44-124B-9989-CC45B1C271F7}" diskRevisions="1" revisionId="65" version="2">
+  <header guid="{07E191E8-5584-7F47-96EA-41EC405E0B44}" dateTime="2014-06-30T17:40:05" maxSheetId="2" userName="Charlie Wilson" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{98FF57BC-DB44-124B-9989-CC45B1C271F7}" dateTime="2014-06-30T18:31:15" maxSheetId="2" userName="Charlie Wilson" r:id="rId2" minRId="1" maxRId="65">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1" numFmtId="21">
+    <oc r="D9">
+      <v>41799</v>
+    </oc>
+    <nc r="D9">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="1" numFmtId="21">
+    <oc r="D10">
+      <v>41799</v>
+    </oc>
+    <nc r="D10">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="1" numFmtId="21">
+    <oc r="D11">
+      <v>41799</v>
+    </oc>
+    <nc r="D11">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="1" numFmtId="21">
+    <oc r="D12">
+      <v>41799</v>
+    </oc>
+    <nc r="D12">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="5" sId="1" xfDxf="1" dxf="1">
+    <oc r="H13" t="inlineStr">
+      <is>
+        <t>http://download953.mediafire.com/v1o4sd4xgfeg/6gmh72x2uql7q2c/RealEngines.zip</t>
+      </is>
+    </oc>
+    <nc r="H13" t="inlineStr">
+      <is>
+        <t>http://www.mediafire.com/download/6gmh72x2uql7q2c/RealEngines.zip</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="1" numFmtId="21">
+    <oc r="D13">
+      <v>41799</v>
+    </oc>
+    <nc r="D13">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="7" sId="1" numFmtId="21">
+    <oc r="C14">
+      <v>41798</v>
+    </oc>
+    <nc r="C14">
+      <v>41810</v>
+    </nc>
+  </rcc>
+  <rcc rId="8" sId="1" numFmtId="21">
+    <oc r="D14">
+      <v>41799</v>
+    </oc>
+    <nc r="D14">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="1">
+    <oc r="B14">
+      <v>6.1</v>
+    </oc>
+    <nc r="B14">
+      <v>6.2</v>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="A14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="10" sId="1" xfDxf="1" dxf="1">
+    <oc r="H14" t="inlineStr">
+      <is>
+        <t>https://github.com/NathanKell/ModularFuelSystem/releases/download/rf-v6.1/RealFuels_v6.1.zip</t>
+      </is>
+    </oc>
+    <nc r="H14" t="inlineStr">
+      <is>
+        <t>https://github.com/NathanKell/ModularFuelSystem/releases/download/rf-v6.2/RealFuels_v6.2.zip</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="1" numFmtId="21">
+    <oc r="D17">
+      <v>41799</v>
+    </oc>
+    <nc r="D17">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="1" xfDxf="1" dxf="1">
+    <oc r="H18" t="inlineStr">
+      <is>
+        <t>http://blizzy.de/toolbar/Toolbar-1.7.1.zip</t>
+      </is>
+    </oc>
+    <nc r="H18" t="inlineStr">
+      <is>
+        <t>http://blizzy.de/toolbar/Toolbar-1.7.3.zip</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="1">
+    <oc r="B18" t="inlineStr">
+      <is>
+        <t>1.7.1</t>
+      </is>
+    </oc>
+    <nc r="B18" t="inlineStr">
+      <is>
+        <t>1.7.3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="14" sId="1" numFmtId="21">
+    <oc r="D18">
+      <v>41799</v>
+    </oc>
+    <nc r="D18">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="15" sId="1" numFmtId="21">
+    <oc r="D16">
+      <v>41799</v>
+    </oc>
+    <nc r="D16">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="16" sId="1" numFmtId="21">
+    <oc r="D15">
+      <v>41799</v>
+    </oc>
+    <nc r="D15">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="1" numFmtId="22">
+    <oc r="C18">
+      <v>41731</v>
+    </oc>
+    <nc r="C18">
+      <v>41816</v>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="1" numFmtId="21">
+    <oc r="D20">
+      <v>41799</v>
+    </oc>
+    <nc r="D20">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="19" sId="1" numFmtId="21">
+    <oc r="D21">
+      <v>41799</v>
+    </oc>
+    <nc r="D21">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="20" sId="1" numFmtId="21">
+    <oc r="D22">
+      <v>41799</v>
+    </oc>
+    <nc r="D22">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="21" sId="1" xfDxf="1" dxf="1">
+    <oc r="H23" t="inlineStr">
+      <is>
+        <t>https://www.dropbox.com/meta_dl/eyJzdWJfcGF0aCI6ICIiLCAidGVzdF9saW5rIjogZmFsc2UsICJzZXJ2ZXIiOiAiZGwuZHJvcGJveHVzZXJjb250ZW50LmNvbSIsICJpdGVtX2lkIjogbnVsbCwgImlzX2RpciI6IGZhbHNlLCAidGtleSI6ICIyb2tqMXIzcGRpZGl2a2EifQ/AANLsRIrxvrp9i0Hu4nsOeQ2HpmBLD6n1wjUE0e2--HsJQ?dl=1</t>
+      </is>
+    </oc>
+    <nc r="H23" t="inlineStr">
+      <is>
+        <t>https://www.dropbox.com/s/kk8whgbwwy7l8kp/MissionControllerMCE71.zip?dl=1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="22" sId="1" numFmtId="21">
+    <oc r="C23">
+      <v>41797</v>
+    </oc>
+    <nc r="C23">
+      <v>41808</v>
+    </nc>
+  </rcc>
+  <rcc rId="23" sId="1" numFmtId="21">
+    <oc r="D23">
+      <v>41799</v>
+    </oc>
+    <nc r="D23">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="24" sId="1">
+    <oc r="B23" t="inlineStr">
+      <is>
+        <t>0.6.9</t>
+      </is>
+    </oc>
+    <nc r="B23">
+      <v>0.71</v>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="1">
+    <oc r="B24" t="inlineStr">
+      <is>
+        <t>3.0.3</t>
+      </is>
+    </oc>
+    <nc r="B24">
+      <v>3.05</v>
+    </nc>
+  </rcc>
+  <rcc rId="26" sId="1" numFmtId="21">
+    <oc r="C24">
+      <v>41796</v>
+    </oc>
+    <nc r="C24">
+      <v>41808</v>
+    </nc>
+  </rcc>
+  <rcc rId="27" sId="1" numFmtId="21">
+    <oc r="D24">
+      <v>41799</v>
+    </oc>
+    <nc r="D24">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="28" sId="1" xfDxf="1" dxf="1">
+    <oc r="H24" t="inlineStr">
+      <is>
+        <t>https://github.com/e-dog/ProceduralFairings/releases/download/v3.03/ProcFairings_3.03.zip</t>
+      </is>
+    </oc>
+    <nc r="H24" t="inlineStr">
+      <is>
+        <t>https://github.com/e-dog/ProceduralFairings/releases/download/v3.05/ProcFairings_3.05.zip</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="29" sId="1" numFmtId="21">
+    <oc r="D25">
+      <v>41799</v>
+    </oc>
+    <nc r="D25">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="30" sId="1">
+    <oc r="B26" t="inlineStr">
+      <is>
+        <t>1.3.3</t>
+      </is>
+    </oc>
+    <nc r="B26">
+      <v>1.4</v>
+    </nc>
+  </rcc>
+  <rcc rId="31" sId="1" numFmtId="21">
+    <oc r="C26">
+      <v>42000</v>
+    </oc>
+    <nc r="C26">
+      <v>41807</v>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="1" numFmtId="21">
+    <oc r="D26">
+      <v>41799</v>
+    </oc>
+    <nc r="D26">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="33" sId="1" xfDxf="1" dxf="1">
+    <oc r="G26" t="inlineStr">
+      <is>
+        <t>http://forum.kerbalspaceprogram.com/threads/56399</t>
+      </is>
+    </oc>
+    <nc r="G26" t="inlineStr">
+      <is>
+        <t>http://forum.kerbalspaceprogram.com/threads/83305</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="34" sId="1" xfDxf="1" dxf="1">
+    <oc r="H26" t="inlineStr">
+      <is>
+        <t>https://github.com/RemoteTechnologiesGroup/RemoteTech/releases/download/v1.3.3/RemoteTech-v1.3.3.zip</t>
+      </is>
+    </oc>
+    <nc r="H26" t="inlineStr">
+      <is>
+        <t>https://github.com/RemoteTechnologiesGroup/RemoteTech/releases/download/v1.4.0/RemoteTech-v1.4.0.zip</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="35" sId="1" xfDxf="1" dxf="1">
+    <oc r="H28" t="inlineStr">
+      <is>
+        <t>http://download642.mediafire.com/lbdbla51g0ag/c8efj64k6izx6xc/AIES_Aerospace151.zip</t>
+      </is>
+    </oc>
+    <nc r="H28" t="inlineStr">
+      <is>
+        <t>http://www.mediafire.com/download/c8efj64k6izx6xc/AIES_Aerospace151.zip</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="A23 A24 A26 A18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A23 A24 A26 A18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A28">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A28">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="36" sId="1" xfDxf="1" dxf="1">
+    <oc r="H29" t="inlineStr">
+      <is>
+        <t>http://download899.mediafire.com/61ub4m6py3dg/o6cbe03iitggj1p/B9+Aerospace+Pack+R4.0c.zip</t>
+      </is>
+    </oc>
+    <nc r="H29" t="inlineStr">
+      <is>
+        <t>http://www.mediafire.com/download/o6cbe03iitggj1p/B9+Aerospace+Pack+R4.0c.zip</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="A29">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A29">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="37" sId="1">
+    <oc r="B30">
+      <v>4.7</v>
+    </oc>
+    <nc r="B30">
+      <v>4.91</v>
+    </nc>
+  </rcc>
+  <rcc rId="38" sId="1" numFmtId="21">
+    <oc r="C30">
+      <v>41796</v>
+    </oc>
+    <nc r="C30">
+      <v>41806</v>
+    </nc>
+  </rcc>
+  <rcc rId="39" sId="1" numFmtId="21">
+    <oc r="D30">
+      <v>41799</v>
+    </oc>
+    <nc r="D30">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="40" sId="1" xfDxf="1" dxf="1">
+    <oc r="H30" t="inlineStr">
+      <is>
+        <t>http://kerbal.curseforge.com/ksp-mods/220632-fasa/files/2203156/download</t>
+      </is>
+    </oc>
+    <nc r="H30" t="inlineStr">
+      <is>
+        <t>http://www.mediafire.com/download/6ony6x1oseot9pp/FASA4.91.zip</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="41" sId="1" odxf="1" dxf="1">
+    <oc r="E30" t="inlineStr">
+      <is>
+        <t>M</t>
+      </is>
+    </oc>
+    <nc r="E30" t="inlineStr">
+      <is>
+        <t>YES -&gt;</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="42" sId="1" odxf="1" dxf="1">
+    <oc r="F30" t="inlineStr">
+      <is>
+        <t>CurseForge</t>
+      </is>
+    </oc>
+    <nc r="F30" t="inlineStr">
+      <is>
+        <t>MEDIAFIRE</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="43" sId="1">
+    <oc r="I31" t="inlineStr">
+      <is>
+        <t>N</t>
+      </is>
+    </oc>
+    <nc r="I31" t="inlineStr">
+      <is>
+        <t>Y</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="44" sId="1" xfDxf="1" dxf="1">
+    <oc r="H32" t="inlineStr">
+      <is>
+        <t>http://download1770.mediafire.com/8np5gxoq5y9g/ufy6utd77j1vlje/Kosmos+LK+1.0.zip</t>
+      </is>
+    </oc>
+    <nc r="H32" t="inlineStr">
+      <is>
+        <t>http://www.mediafire.com/download/ai9epvsl49ron6c/Kosmos+4.1.zip</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="A32">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A32">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="45" sId="1" xfDxf="1" dxf="1">
+    <oc r="H33" t="inlineStr">
+      <is>
+        <t>http://download1874.mediafire.com/5xdv8192crqg/hxt2kfpctmcmt56/KW+Release+Package+v2.5.6B.zip</t>
+      </is>
+    </oc>
+    <nc r="H33" t="inlineStr">
+      <is>
+        <t>http://www.mediafire.com/download/hxt2kfpctmcmt56/KW+Release+Package+v2.5.6B.zip</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="A33">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A33">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="46" sId="1" xfDxf="1" dxf="1">
+    <oc r="H35" t="inlineStr">
+      <is>
+        <t>https://dl.dropboxusercontent.com/u/46506740/NovaPunch2_04.zip</t>
+      </is>
+    </oc>
+    <nc r="H35" t="inlineStr">
+      <is>
+        <t>http://beta.kerbalstuff.com/mod/26/NovaPunch/download/2.05</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="47" sId="1">
+    <oc r="B35">
+      <v>2.04</v>
+    </oc>
+    <nc r="B35">
+      <v>2.0499999999999998</v>
+    </nc>
+  </rcc>
+  <rcc rId="48" sId="1">
+    <oc r="F35" t="inlineStr">
+      <is>
+        <t>Dropbox</t>
+      </is>
+    </oc>
+    <nc r="F35" t="inlineStr">
+      <is>
+        <t>KerbalStuf</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="49" sId="1" numFmtId="21">
+    <oc r="C35">
+      <v>41777</v>
+    </oc>
+    <nc r="C35">
+      <v>41805</v>
+    </nc>
+  </rcc>
+  <rcc rId="50" sId="1" numFmtId="21">
+    <oc r="D35">
+      <v>41799</v>
+    </oc>
+    <nc r="D35">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="A35">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A35">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rrc rId="51" sId="1" ref="A37:XFD37" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A37:XFD37" start="0" length="0"/>
+    <rcc rId="0" sId="1">
+      <nc r="A37" t="inlineStr">
+        <is>
+          <t>RLA Stockalike</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="I37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="J37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </nc>
+    </rcc>
+    <rfmt sheetId="1" sqref="K37" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="1"/>
+          </patternFill>
+        </fill>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rcc rId="52" sId="1" numFmtId="21">
+    <oc r="D28">
+      <v>41799</v>
+    </oc>
+    <nc r="D28">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="53" sId="1" numFmtId="21">
+    <oc r="D29">
+      <v>41799</v>
+    </oc>
+    <nc r="D29">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="54" sId="1" numFmtId="21">
+    <oc r="D31">
+      <v>41799</v>
+    </oc>
+    <nc r="D31">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="55" sId="1" numFmtId="21">
+    <oc r="D32">
+      <v>41799</v>
+    </oc>
+    <nc r="D32">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="56" sId="1" numFmtId="21">
+    <oc r="D33">
+      <v>41799</v>
+    </oc>
+    <nc r="D33">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="57" sId="1" numFmtId="21">
+    <oc r="D34">
+      <v>41799</v>
+    </oc>
+    <nc r="D34">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="58" sId="1" numFmtId="21">
+    <oc r="D36">
+      <v>41799</v>
+    </oc>
+    <nc r="D36">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="59" sId="1" xfDxf="1" dxf="1">
+    <oc r="H37" t="inlineStr">
+      <is>
+        <t>https://www.dropbox.com/meta_dl/eyJzdWJfcGF0aCI6ICIiLCAidGVzdF9saW5rIjogZmFsc2UsICJzZXJ2ZXIiOiAiZGwuZHJvcGJveHVzZXJjb250ZW50LmNvbSIsICJpdGVtX2lkIjogbnVsbCwgImlzX2RpciI6IGZhbHNlLCAidGtleSI6ICJhbmp1YTJ3Znh5bWJ0bzQifQ/AANNP1P_UxB-pqvoDG_S10hFtxO86cc2TXTKMVtQW8S25g?dl=1</t>
+      </is>
+    </oc>
+    <nc r="H37" t="inlineStr">
+      <is>
+        <t>https://github.com/sumghai/SDHI_ServiceModuleSystem/releases/download/v1.9/ksp_sdhi_sms_v1_9.zip</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="60" sId="1">
+    <oc r="F37" t="inlineStr">
+      <is>
+        <t>Dropbox</t>
+      </is>
+    </oc>
+    <nc r="F37" t="inlineStr">
+      <is>
+        <t>Github</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="61" sId="1" numFmtId="21">
+    <oc r="D37">
+      <v>41799</v>
+    </oc>
+    <nc r="D37">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="62" sId="1" xfDxf="1" dxf="1">
+    <oc r="H38" t="inlineStr">
+      <is>
+        <t>https://dl.dropboxusercontent.com/u/3061183/Space-shuttle-engines-2014-06-08-v1.4.zip</t>
+      </is>
+    </oc>
+    <nc r="H38" t="inlineStr">
+      <is>
+        <t>https://dl.dropboxusercontent.com/u/3061183/Space-shuttle-engines-2014-06-13-v1.4.2.zip</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="63" sId="1" numFmtId="21">
+    <oc r="D38">
+      <v>41799</v>
+    </oc>
+    <nc r="D38">
+      <v>41821</v>
+    </nc>
+  </rcc>
+  <rcc rId="64" sId="1" numFmtId="21">
+    <oc r="C38">
+      <v>41798</v>
+    </oc>
+    <nc r="C38">
+      <v>41803</v>
+    </nc>
+  </rcc>
+  <rcc rId="65" sId="1">
+    <oc r="B38">
+      <v>1.4</v>
+    </oc>
+    <nc r="B38">
+      <v>1.42</v>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="A38">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A38">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A14">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A14">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A9">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A9">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A6">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A6">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcv guid="{8418E1C0-32C3-E149-88BF-82E8DC3121C6}" action="delete"/>
+  <rcv guid="{8418E1C0-32C3-E149-88BF-82E8DC3121C6}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{98FF57BC-DB44-124B-9989-CC45B1C271F7}" name="Charlie Wilson" id="-198330745" dateTime="2014-06-30T17:40:05"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1123,19 +2354,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="9" max="9" width="99.33203125" customWidth="1"/>
+    <col min="9" max="10" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1152,20 +2383,23 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10">
+        <v>111</v>
+      </c>
+      <c r="J1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1176,10 +2410,11 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>6.2</v>
@@ -1188,25 +2423,31 @@
         <v>41792</v>
       </c>
       <c r="D3" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>8</v>
       </c>
       <c r="B4">
         <v>5.0999999999999996</v>
@@ -1215,23 +2456,29 @@
         <v>41766</v>
       </c>
       <c r="D4" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1242,40 +2489,44 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>15</v>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C6" s="1">
-        <v>41792</v>
+        <v>41804</v>
       </c>
       <c r="D6" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10">
+        <v>113</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>4.7</v>
@@ -1284,52 +2535,64 @@
         <v>41764</v>
       </c>
       <c r="D7" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
         <v>41760</v>
       </c>
       <c r="D8" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>2.2999999999999998</v>
@@ -1338,52 +2601,64 @@
         <v>41790</v>
       </c>
       <c r="D9" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10">
+        <v>115</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2">
         <v>41781</v>
       </c>
       <c r="D10" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4">
         <v>0.3</v>
@@ -1392,133 +2667,163 @@
         <v>41765</v>
       </c>
       <c r="D11" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1">
         <v>41763</v>
       </c>
       <c r="D12" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
         <v>60</v>
       </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1">
         <v>41693</v>
       </c>
       <c r="D13" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>16</v>
+        <v>116</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="C14" s="1">
-        <v>41798</v>
+        <v>41810</v>
       </c>
       <c r="D14" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10">
+        <v>117</v>
+      </c>
+      <c r="I14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1">
         <v>41756</v>
       </c>
       <c r="D15" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10">
+        <v>67</v>
+      </c>
+      <c r="I15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1527,28 +2832,31 @@
         <v>45292</v>
       </c>
       <c r="D16" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>0.8</v>
@@ -1557,50 +2865,62 @@
         <v>41996</v>
       </c>
       <c r="D17" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
         <v>72</v>
       </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" t="s">
-        <v>81</v>
-      </c>
       <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="I17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C18" s="2">
-        <v>41731</v>
+        <v>41816</v>
       </c>
       <c r="D18" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1611,37 +2931,44 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1">
         <v>41761</v>
       </c>
       <c r="D20" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10">
+        <v>82</v>
+      </c>
+      <c r="I20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>1.1000000000000001</v>
@@ -1650,106 +2977,130 @@
         <v>41731</v>
       </c>
       <c r="D21" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1">
         <v>41781</v>
       </c>
       <c r="D22" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>100</v>
+        <v>86</v>
+      </c>
+      <c r="I22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0.71</v>
       </c>
       <c r="C23" s="1">
-        <v>41797</v>
+        <v>41808</v>
       </c>
       <c r="D23" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>3.05</v>
+      </c>
+      <c r="C24" s="1">
+        <v>41808</v>
+      </c>
+      <c r="D24" s="1">
+        <v>41821</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
         <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="1">
-        <v>41796</v>
-      </c>
-      <c r="D24" s="1">
-        <v>41799</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" t="s">
-        <v>102</v>
-      </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>22</v>
       </c>
       <c r="B25">
         <v>0.7</v>
@@ -1758,416 +3109,460 @@
         <v>41660</v>
       </c>
       <c r="D25" s="1">
-        <v>41799</v>
+        <v>41821</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>1.4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>41807</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41821</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="1">
+        <v>41677</v>
+      </c>
+      <c r="D28" s="1">
+        <v>41821</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>41933</v>
+      </c>
+      <c r="D29" s="1">
+        <v>41821</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>4.91</v>
+      </c>
+      <c r="C30" s="1">
+        <v>41806</v>
+      </c>
+      <c r="D30" s="1">
+        <v>41821</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="1">
+        <v>41795</v>
+      </c>
+      <c r="D31" s="1">
+        <v>41821</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C32" s="7">
+        <v>41249</v>
+      </c>
+      <c r="D32" s="1">
+        <v>41821</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1">
+        <v>42004</v>
+      </c>
+      <c r="D33" s="1">
+        <v>41821</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="1">
+        <v>41790</v>
+      </c>
+      <c r="D34" s="1">
+        <v>41821</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" t="s">
         <v>105</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C35" s="1">
+        <v>41805</v>
+      </c>
+      <c r="D35" s="1">
+        <v>41821</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" t="s">
         <v>106</v>
       </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="H35" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>0.4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>41752</v>
+      </c>
+      <c r="D36" s="1">
+        <v>41821</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>1.9</v>
+      </c>
+      <c r="C37" s="1">
+        <v>41734</v>
+      </c>
+      <c r="D37" s="1">
+        <v>41821</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>1.42</v>
+      </c>
+      <c r="C38" s="1">
+        <v>41803</v>
+      </c>
+      <c r="D38" s="1">
+        <v>41821</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="1">
-        <v>42000</v>
-      </c>
-      <c r="D26" s="1">
-        <v>41799</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" t="s">
-        <v>108</v>
-      </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="1">
-        <v>41650</v>
-      </c>
-      <c r="D27" s="1">
-        <v>41799</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" t="s">
-        <v>113</v>
-      </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="1">
-        <v>41677</v>
-      </c>
-      <c r="D29" s="1">
-        <v>41799</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" t="s">
-        <v>116</v>
-      </c>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1">
-        <v>41933</v>
-      </c>
-      <c r="D30" s="1">
-        <v>41799</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" t="s">
-        <v>118</v>
-      </c>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" t="s">
-        <v>142</v>
-      </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>4.7</v>
-      </c>
-      <c r="C32" s="1">
-        <v>41796</v>
-      </c>
-      <c r="D32" s="1">
-        <v>41799</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" t="s">
-        <v>121</v>
-      </c>
-      <c r="H32" t="s">
-        <v>119</v>
-      </c>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="1">
-        <v>41795</v>
-      </c>
-      <c r="D33" s="1">
-        <v>41799</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H33" t="s">
-        <v>123</v>
-      </c>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C34" s="7">
-        <v>41249</v>
-      </c>
-      <c r="D34" s="1">
-        <v>41799</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" t="s">
-        <v>126</v>
-      </c>
-      <c r="H34" t="s">
-        <v>125</v>
-      </c>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="1">
-        <v>42004</v>
-      </c>
-      <c r="D35" s="1">
-        <v>41799</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" t="s">
-        <v>128</v>
-      </c>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="1">
-        <v>41790</v>
-      </c>
-      <c r="D36" s="1">
-        <v>41799</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H38" t="s">
         <v>132</v>
       </c>
-      <c r="H36" t="s">
-        <v>133</v>
-      </c>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37">
-        <v>2.04</v>
-      </c>
-      <c r="C37" s="1">
-        <v>41777</v>
-      </c>
-      <c r="D37" s="1">
-        <v>41799</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" t="s">
-        <v>135</v>
-      </c>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38">
-        <v>0.4</v>
-      </c>
-      <c r="C38" s="1">
-        <v>41752</v>
-      </c>
-      <c r="D38" s="1">
-        <v>41799</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" t="s">
-        <v>137</v>
-      </c>
-      <c r="H38" t="s">
-        <v>136</v>
-      </c>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40">
-        <v>1.9</v>
-      </c>
-      <c r="C40" s="1">
-        <v>41734</v>
-      </c>
-      <c r="D40" s="1">
-        <v>41799</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" t="s">
-        <v>139</v>
-      </c>
-      <c r="H40" t="s">
-        <v>138</v>
-      </c>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41">
-        <v>1.4</v>
-      </c>
-      <c r="C41" s="1">
-        <v>41798</v>
-      </c>
-      <c r="D41" s="1">
-        <v>41799</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" t="s">
-        <v>141</v>
-      </c>
-      <c r="H41" t="s">
-        <v>140</v>
-      </c>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="K39" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A7:I18">
     <sortCondition ref="A6"/>
   </sortState>
+  <customSheetViews>
+    <customSheetView guid="{8418E1C0-32C3-E149-88BF-82E8DC3121C6}">
+      <selection activeCell="A6" sqref="A6"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
